--- a/case_study/experiments/policy1Hz/multi/adversarial/NoEnforcer.xlsx
+++ b/case_study/experiments/policy1Hz/multi/adversarial/NoEnforcer.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nicopellegrinelli\abz2025_casestudy_autonomous_driving\enforcement\data\multi\adversarial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\abz2025_casestudy_autonomous_driving\case_study\experiments\policy1Hz\multi\adversarial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD06AD2-07F5-4052-8785-10B28CBD535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F2306-5CBC-4ABF-AA83-CA40860B1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="26">
   <si>
     <t>execution_id</t>
   </si>
@@ -89,6 +102,15 @@
   </si>
   <si>
     <t>03dec574-3fbb-42fb-aaeb-ad8c765ac30e</t>
+  </si>
+  <si>
+    <t>N. crash:</t>
+  </si>
+  <si>
+    <t>Mean:</t>
+  </si>
+  <si>
+    <t>Standard Deviation:</t>
   </si>
 </sst>
 </file>
@@ -451,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -559,7 +581,7 @@
         <v>993.5655329995825</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -609,7 +631,7 @@
         <v>600.14228599993658</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -659,7 +681,7 @@
         <v>968.55739800002993</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -709,7 +731,7 @@
         <v>1089.069009000013</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -759,7 +781,7 @@
         <v>1201.1903569996321</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -809,7 +831,7 @@
         <v>1271.698775999994</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -859,7 +881,7 @@
         <v>1997.6689860000081</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -909,7 +931,7 @@
         <v>1993.2583739996519</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -959,7 +981,7 @@
         <v>1034.195981999801</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1031,7 @@
         <v>1755.925576000209</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1081,7 @@
         <v>1351.097538999966</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1109,7 +1131,7 @@
         <v>1539.1856959995489</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1159,7 +1181,7 @@
         <v>2487.5783839997889</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1231,7 @@
         <v>2080.8142930000031</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1281,7 @@
         <v>1378.884600000674</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>3618.5089150003482</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1381,7 @@
         <v>1658.1350399992521</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1431,7 @@
         <v>3328.6357830002089</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1459,7 +1481,7 @@
         <v>1460.962234001272</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1509,7 +1531,7 @@
         <v>2374.03122700016</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1559,7 +1581,7 @@
         <v>954.77971000036632</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1609,7 +1631,7 @@
         <v>1465.540147000866</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1681,7 @@
         <v>2551.3484040002372</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1709,7 +1731,7 @@
         <v>726.08525000032387</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1759,7 +1781,7 @@
         <v>1171.1803830003189</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1831,7 @@
         <v>1590.06761099954</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1859,7 +1881,7 @@
         <v>1920.2297990013899</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1909,7 +1931,7 @@
         <v>1949.955235000743</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1959,7 +1981,7 @@
         <v>1456.4952049986459</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2009,7 +2031,7 @@
         <v>1420.3757690011121</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2059,7 +2081,7 @@
         <v>1667.446714000107</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2109,7 +2131,7 @@
         <v>756.67556599910313</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2159,7 +2181,7 @@
         <v>2687.5761289993529</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2209,7 +2231,7 @@
         <v>1166.622687000199</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2259,7 +2281,7 @@
         <v>2086.582789999738</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2309,7 +2331,7 @@
         <v>2054.2965739987271</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2359,7 +2381,7 @@
         <v>3218.7180569999332</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2409,7 +2431,7 @@
         <v>317.67007500093308</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2459,7 +2481,7 @@
         <v>1764.633954999226</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2509,7 +2531,7 @@
         <v>1125.4287060000929</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +2581,7 @@
         <v>2423.406285000965</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2609,7 +2631,7 @@
         <v>1498.724491999383</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2659,7 +2681,7 @@
         <v>1162.7165240006429</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2709,7 +2731,7 @@
         <v>1404.1517929999829</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2759,7 +2781,7 @@
         <v>988.78139299995382</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2809,7 +2831,7 @@
         <v>2008.700864000275</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2881,7 @@
         <v>1885.339617001591</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2909,7 +2931,7 @@
         <v>700.18312400134164</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -2959,7 +2981,7 @@
         <v>877.42265199995018</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3007,6 +3029,57 @@
       </c>
       <c r="P51">
         <v>853.23413199876086</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53">
+        <f>COUNTIF(G2:G51,"True")</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54" si="0">AVERAGE(H2:H51)</f>
+        <v>8.4681921539306634E-2</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54:P54" si="1">AVERAGE(I2:I51)</f>
+        <v>0.36119885940551766</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>10.66</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="1"/>
+        <v>1600.7495126000777</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ref="H55" si="2">_xlfn.STDEV.S(H2:H51)</f>
+        <v>9.8988212650840693E-2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55:P55" si="3">_xlfn.STDEV.S(I2:I51)</f>
+        <v>0.15710313688831179</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>4.2981248877877452</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="3"/>
+        <v>711.56676951295333</v>
       </c>
     </row>
   </sheetData>

--- a/case_study/experiments/policy1Hz/multi/adversarial/NoEnforcer.xlsx
+++ b/case_study/experiments/policy1Hz/multi/adversarial/NoEnforcer.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\abz2025_casestudy_autonomous_driving\case_study\experiments\policy1Hz\multi\adversarial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nicopellegrinelli\abz2025_casestudy_autonomous_driving\enforcement\data\multi\adversarial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F2306-5CBC-4ABF-AA83-CA40860B1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD06AD2-07F5-4052-8785-10B28CBD535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="23">
   <si>
     <t>execution_id</t>
   </si>
@@ -102,15 +89,6 @@
   </si>
   <si>
     <t>03dec574-3fbb-42fb-aaeb-ad8c765ac30e</t>
-  </si>
-  <si>
-    <t>N. crash:</t>
-  </si>
-  <si>
-    <t>Mean:</t>
-  </si>
-  <si>
-    <t>Standard Deviation:</t>
   </si>
 </sst>
 </file>
@@ -473,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -581,7 +559,7 @@
         <v>993.5655329995825</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -631,7 +609,7 @@
         <v>600.14228599993658</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -681,7 +659,7 @@
         <v>968.55739800002993</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -731,7 +709,7 @@
         <v>1089.069009000013</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -781,7 +759,7 @@
         <v>1201.1903569996321</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -831,7 +809,7 @@
         <v>1271.698775999994</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -881,7 +859,7 @@
         <v>1997.6689860000081</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -931,7 +909,7 @@
         <v>1993.2583739996519</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -981,7 +959,7 @@
         <v>1034.195981999801</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1031,7 +1009,7 @@
         <v>1755.925576000209</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1081,7 +1059,7 @@
         <v>1351.097538999966</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1131,7 +1109,7 @@
         <v>1539.1856959995489</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1181,7 +1159,7 @@
         <v>2487.5783839997889</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1209,7 @@
         <v>2080.8142930000031</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1281,7 +1259,7 @@
         <v>1378.884600000674</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1309,7 @@
         <v>3618.5089150003482</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +1359,7 @@
         <v>1658.1350399992521</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1431,7 +1409,7 @@
         <v>3328.6357830002089</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1481,7 +1459,7 @@
         <v>1460.962234001272</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1531,7 +1509,7 @@
         <v>2374.03122700016</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1581,7 +1559,7 @@
         <v>954.77971000036632</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1631,7 +1609,7 @@
         <v>1465.540147000866</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1681,7 +1659,7 @@
         <v>2551.3484040002372</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1731,7 +1709,7 @@
         <v>726.08525000032387</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1781,7 +1759,7 @@
         <v>1171.1803830003189</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1831,7 +1809,7 @@
         <v>1590.06761099954</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1881,7 +1859,7 @@
         <v>1920.2297990013899</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1931,7 +1909,7 @@
         <v>1949.955235000743</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1981,7 +1959,7 @@
         <v>1456.4952049986459</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2031,7 +2009,7 @@
         <v>1420.3757690011121</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2081,7 +2059,7 @@
         <v>1667.446714000107</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2131,7 +2109,7 @@
         <v>756.67556599910313</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2181,7 +2159,7 @@
         <v>2687.5761289993529</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2231,7 +2209,7 @@
         <v>1166.622687000199</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2281,7 +2259,7 @@
         <v>2086.582789999738</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2331,7 +2309,7 @@
         <v>2054.2965739987271</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2381,7 +2359,7 @@
         <v>3218.7180569999332</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2431,7 +2409,7 @@
         <v>317.67007500093308</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2481,7 +2459,7 @@
         <v>1764.633954999226</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2531,7 +2509,7 @@
         <v>1125.4287060000929</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2581,7 +2559,7 @@
         <v>2423.406285000965</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2631,7 +2609,7 @@
         <v>1498.724491999383</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2681,7 +2659,7 @@
         <v>1162.7165240006429</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2731,7 +2709,7 @@
         <v>1404.1517929999829</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2781,7 +2759,7 @@
         <v>988.78139299995382</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2831,7 +2809,7 @@
         <v>2008.700864000275</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2881,7 +2859,7 @@
         <v>1885.339617001591</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2909,7 @@
         <v>700.18312400134164</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -2981,7 +2959,7 @@
         <v>877.42265199995018</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3029,57 +3007,6 @@
       </c>
       <c r="P51">
         <v>853.23413199876086</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53">
-        <f>COUNTIF(G2:G51,"True")</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54">
-        <f t="shared" ref="H54" si="0">AVERAGE(H2:H51)</f>
-        <v>8.4681921539306634E-2</v>
-      </c>
-      <c r="I54">
-        <f t="shared" ref="I54:P54" si="1">AVERAGE(I2:I51)</f>
-        <v>0.36119885940551766</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="1"/>
-        <v>10.66</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="1"/>
-        <v>1600.7495126000777</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55">
-        <f t="shared" ref="H55" si="2">_xlfn.STDEV.S(H2:H51)</f>
-        <v>9.8988212650840693E-2</v>
-      </c>
-      <c r="I55">
-        <f t="shared" ref="I55:P55" si="3">_xlfn.STDEV.S(I2:I51)</f>
-        <v>0.15710313688831179</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="3"/>
-        <v>4.2981248877877452</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="3"/>
-        <v>711.56676951295333</v>
       </c>
     </row>
   </sheetData>
